--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1836.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1836.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.286559650787497</v>
+        <v>0.3980872333049774</v>
       </c>
       <c r="B1">
-        <v>1.403361952814421</v>
+        <v>3.237294912338257</v>
       </c>
       <c r="C1">
-        <v>1.500666281954268</v>
+        <v>4.636600494384766</v>
       </c>
       <c r="D1">
-        <v>1.68754379723715</v>
+        <v>1.840664982795715</v>
       </c>
       <c r="E1">
-        <v>2.186021383012174</v>
+        <v>0.8051331043243408</v>
       </c>
     </row>
   </sheetData>
